--- a/Principal Components Regression/PCR_metrics_SG.xlsx
+++ b/Principal Components Regression/PCR_metrics_SG.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6762665192094692</v>
+        <v>0.7328722266158143</v>
       </c>
       <c r="C2" t="n">
-        <v>1.388652957238431</v>
+        <v>1.268128219443651</v>
       </c>
       <c r="D2" t="n">
-        <v>4.258458706768952</v>
+        <v>3.086170264263346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6981213519387625</v>
+        <v>0.7818450048328506</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7033392155417957</v>
+        <v>0.7960836621933083</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329321366536381</v>
+        <v>1.107974222142472</v>
       </c>
       <c r="D3" t="n">
-        <v>4.178340008757614</v>
+        <v>2.871420679761187</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7033392155417959</v>
+        <v>0.796083662193308</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.713747387791128</v>
+        <v>0.6879776526582777</v>
       </c>
       <c r="C4" t="n">
-        <v>1.407898422628161</v>
+        <v>1.307523689883992</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8169543209085113</v>
+        <v>0.323541976476271</v>
       </c>
       <c r="E4" t="n">
-        <v>1.06209192746276</v>
+        <v>0.9826441592072659</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.323195437497066</v>
+        <v>0.5342009813289574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2573184373652159</v>
+        <v>0.1864511296566305</v>
       </c>
       <c r="D5" t="n">
-        <v>2.10968240028775</v>
+        <v>1.390650181587342</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3569175141296565</v>
+        <v>0.5764906254463343</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3774035894840582</v>
+        <v>0.613669292135987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2467985323647873</v>
+        <v>0.1698029962393671</v>
       </c>
       <c r="D6" t="n">
-        <v>2.043201323093474</v>
+        <v>1.270485726139824</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3774035894840578</v>
+        <v>0.6136692921359869</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3445794252712457</v>
+        <v>0.5362093861002759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2031745198945589</v>
+        <v>0.1776754378860231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2275278314078086</v>
+        <v>0.06071208499618841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9415526425325494</v>
+        <v>0.9741979419080773</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5671406868167778</v>
+        <v>0.7675537172648184</v>
       </c>
       <c r="C8" t="n">
-        <v>1.940239398727981</v>
+        <v>1.225730889951402</v>
       </c>
       <c r="D8" t="n">
-        <v>6.523686086568324</v>
+        <v>2.327864963952912</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5781360895302088</v>
+        <v>0.8453895418614509</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5799738445448386</v>
+        <v>0.8685430486090612</v>
       </c>
       <c r="C9" t="n">
-        <v>1.911261465676068</v>
+        <v>0.9217764460513848</v>
       </c>
       <c r="D9" t="n">
-        <v>6.490673173374335</v>
+        <v>2.018987963895027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5799738445448387</v>
+        <v>0.8685430486090623</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7445449626103792</v>
+        <v>0.8004167377512081</v>
       </c>
       <c r="C10" t="n">
-        <v>1.462675257630207</v>
+        <v>1.081195020201012</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.471809168390156</v>
+        <v>-0.05988640393730549</v>
       </c>
       <c r="E10" t="n">
-        <v>1.08867716544012</v>
+        <v>0.9966079614693847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4230866665211183</v>
+        <v>0.3830314792327943</v>
       </c>
       <c r="C11" t="n">
-        <v>71.10304271379879</v>
+        <v>69.84855007043338</v>
       </c>
       <c r="D11" t="n">
-        <v>281.519915021094</v>
+        <v>287.8748564263804</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4433749163556979</v>
+        <v>0.4300448598260287</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4590576083008151</v>
+        <v>0.4674449444302776</v>
       </c>
       <c r="C12" t="n">
-        <v>68.85070730605962</v>
+        <v>64.89453851309838</v>
       </c>
       <c r="D12" t="n">
-        <v>274.3360375901215</v>
+        <v>269.3962528851617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4590576083008145</v>
+        <v>0.4674449444302782</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5429379410868116</v>
+        <v>0.4223244376658822</v>
       </c>
       <c r="C13" t="n">
-        <v>68.25613888851531</v>
+        <v>69.67427276405182</v>
       </c>
       <c r="D13" t="n">
-        <v>-96.38793687547502</v>
+        <v>-60.0912327390983</v>
       </c>
       <c r="E13" t="n">
-        <v>1.173947275856413</v>
+        <v>1.112175646404438</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5461089211083558</v>
+        <v>0.5441582405946108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3103745175340672</v>
+        <v>0.3001032372491716</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4269073132782339</v>
+        <v>0.4056955635256956</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5883076996277294</v>
+        <v>0.6155248872242665</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6128303318782875</v>
+        <v>0.6427331130261335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2866559080567737</v>
+        <v>0.2656807013570985</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4048489413672017</v>
+        <v>0.3758159174596709</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6128303318782875</v>
+        <v>0.6427331130261341</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4393992953258374</v>
+        <v>0.7049593049282989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5084523516961916</v>
+        <v>0.2468827174258259</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1681203399718985</v>
+        <v>-0.1691394894886749</v>
       </c>
       <c r="E16" t="n">
-        <v>1.284245282727594</v>
+        <v>1.184755229159776</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
